--- a/Assignment2/Code/Freq_Table_for_10000_numbers.xlsx
+++ b/Assignment2/Code/Freq_Table_for_10000_numbers.xlsx
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>973</v>
+        <v>1007</v>
       </c>
       <c r="C2">
-        <v>0.0973</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="C3">
-        <v>0.094</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="C4">
-        <v>0.0992</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="C5">
-        <v>0.1038</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>982</v>
+        <v>1005</v>
       </c>
       <c r="C6">
-        <v>0.0982</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="C7">
-        <v>0.1004</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C8">
-        <v>0.1001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1043</v>
+        <v>984</v>
       </c>
       <c r="C9">
-        <v>0.1043</v>
+        <v>0.0984</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C10">
-        <v>0.1021</v>
+        <v>0.1019</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -501,10 +501,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1006</v>
+        <v>972</v>
       </c>
       <c r="C11">
-        <v>0.1006</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
   </sheetData>
